--- a/public/assets/excel/data.xlsx
+++ b/public/assets/excel/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Pemsi_UTS\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAECAFB3-846F-4314-818A-897F165FE79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CF707-3FDF-4169-BBA1-DFAFA0CE0F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E74EC148-98BF-4EE4-B8AC-E4A925ACD446}"/>
   </bookViews>
@@ -35,17 +35,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Permintaan (Bulan)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,7 +73,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -97,7 +108,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,24 +423,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86BABDD-CFAC-4DFC-8284-93BE24843914}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>